--- a/reports/resnet18_23_no_MMTM/prediction/0/probability_test_0.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/0/probability_test_0.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9619829058647156</v>
+        <v>0.9721369743347168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03801713511347771</v>
+        <v>0.02786304242908955</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9250082969665527</v>
+        <v>0.9123392105102539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07499169558286667</v>
+        <v>0.08766074478626251</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1247516423463821</v>
+        <v>0.1309687942266464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8752483725547791</v>
+        <v>0.8690311908721924</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7417712211608887</v>
+        <v>0.6993098258972168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2582288384437561</v>
+        <v>0.3006901443004608</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3931852877140045</v>
+        <v>0.4048309028148651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6068146824836731</v>
+        <v>0.5951690673828125</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7197099924087524</v>
+        <v>0.7949009537696838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2802900075912476</v>
+        <v>0.2050989866256714</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5972360372543335</v>
+        <v>0.6115628480911255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4027639627456665</v>
+        <v>0.3884371519088745</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2626504898071289</v>
+        <v>0.2777954339981079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7373495101928711</v>
+        <v>0.7222045660018921</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4336559176445007</v>
+        <v>0.5240447521209717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5663440823554993</v>
+        <v>0.4759552180767059</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.12434321641922</v>
+        <v>0.1105461120605469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8756567239761353</v>
+        <v>0.8894538879394531</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3339243531227112</v>
+        <v>0.33326056599617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6660756468772888</v>
+        <v>0.6667394638061523</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.682251513004303</v>
+        <v>0.6552316546440125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3177485466003418</v>
+        <v>0.3447683155536652</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2877778708934784</v>
+        <v>0.2819699645042419</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7122220993041992</v>
+        <v>0.7180299758911133</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1031720265746117</v>
+        <v>0.07933566719293594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8968279361724854</v>
+        <v>0.920664370059967</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1220264509320259</v>
+        <v>0.138294130563736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8779734969139099</v>
+        <v>0.8617058396339417</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6647858619689941</v>
+        <v>0.6569089889526367</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3352141380310059</v>
+        <v>0.3430909514427185</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5455813407897949</v>
+        <v>0.5393844246864319</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4544186592102051</v>
+        <v>0.4606155455112457</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6061116456985474</v>
+        <v>0.6047025918960571</v>
       </c>
       <c r="C19" t="n">
-        <v>0.393888384103775</v>
+        <v>0.3952974379062653</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6041580438613892</v>
+        <v>0.4870820343494415</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3958419859409332</v>
+        <v>0.5129179954528809</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03401703760027885</v>
+        <v>0.0396307073533535</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9659830331802368</v>
+        <v>0.960369348526001</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6011884212493896</v>
+        <v>0.5586590170860291</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3988115787506104</v>
+        <v>0.4413409829139709</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0626506507396698</v>
+        <v>0.07255688309669495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9373493194580078</v>
+        <v>0.9274431467056274</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3242579400539398</v>
+        <v>0.3573634624481201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6757420301437378</v>
+        <v>0.6426364779472351</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
